--- a/Classwork/Session 1/Activities/06-Stu_ProductPivot/Solved/ProductionPivot_solved.xlsx
+++ b/Classwork/Session 1/Activities/06-Stu_ProductPivot/Solved/ProductionPivot_solved.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\12-Stu_ProductPivot\Solved\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="15B28DE0E9FCF650EAD0543C2A35DB1BD3D4F928" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{49AA8D72-5FE6-48B9-8C0C-32551C5B7F78}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot Table" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -155,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -270,7 +264,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2547D6F2-C93F-48FF-977C-527BA36B6DDF}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -287,7 +281,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jacob's Gaming Rig" refreshedDate="42894.741834722219" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jacob's Gaming Rig" refreshedDate="42894.741834722219" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E29" sheet="Orders"/>
   </cacheSource>
@@ -539,7 +533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -1002,26 +996,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.73046875" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1059,7 +1054,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>100+ROW()-2</f>
         <v>101</v>
@@ -1077,7 +1072,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">100+ROW()-2</f>
         <v>102</v>
@@ -1095,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -1113,7 +1108,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -1125,7 +1120,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -1137,7 +1132,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -1149,7 +1144,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -1161,7 +1156,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -1173,7 +1168,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -1185,7 +1180,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>200</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>A12+1</f>
         <v>201</v>
@@ -1208,7 +1203,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14">
         <f t="shared" ref="A14:A18" si="1">A13+1</f>
         <v>202</v>
@@ -1220,7 +1215,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>203</v>
@@ -1232,7 +1227,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>204</v>
@@ -1244,7 +1239,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>205</v>
@@ -1256,7 +1251,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>206</v>
@@ -1268,10 +1263,10 @@
         <v>109.99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
     </row>
   </sheetData>
@@ -1280,18 +1275,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E29"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" customWidth="1"/>
-    <col min="4" max="8" width="15.73046875" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -1849,18 +1845,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
